--- a/tests/test-files/test_wrangling/expected/data_tables_from_CMC/stats_analysis_output_mean_CMC.xlsx
+++ b/tests/test-files/test_wrangling/expected/data_tables_from_CMC/stats_analysis_output_mean_CMC.xlsx
@@ -602,13 +602,13 @@
         <v>0.9</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005742219534558942</v>
+        <v>0.005742219534558941</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="5">
@@ -645,10 +645,10 @@
         <v>0.008714573327942753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="6">
@@ -685,10 +685,10 @@
         <v>0.005759981667615118</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="7">
@@ -722,13 +722,13 @@
         <v>0.9</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01461149720357838</v>
+        <v>0.01461149720357837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="8">
@@ -765,10 +765,10 @@
         <v>0.02844690971767958</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="9">
@@ -807,10 +807,10 @@
         <v>0.01592928666034522</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="10">
@@ -847,10 +847,10 @@
         <v>0.0181273592475702</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="11">
@@ -887,10 +887,10 @@
         <v>0.01132601468075958</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="12">
@@ -927,10 +927,10 @@
         <v>0.02100361465427025</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="13">
@@ -967,10 +967,10 @@
         <v>0.03301895696603913</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="14">
@@ -1009,10 +1009,10 @@
         <v>0.01632764129944886</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="15">
@@ -1049,10 +1049,10 @@
         <v>0.02019056685852973</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="16">
@@ -1089,10 +1089,10 @@
         <v>0.013232088647812</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="17">
@@ -1129,10 +1129,10 @@
         <v>0.02426956315935992</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="18">
@@ -1169,10 +1169,10 @@
         <v>0.03981601183315409</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="19">
@@ -1208,13 +1208,13 @@
         <v>0.9</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02675194768778623</v>
+        <v>0.02675194768778622</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="20">
@@ -1251,10 +1251,10 @@
         <v>0.02414397647381295</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="21">
@@ -1288,13 +1288,13 @@
         <v>0.9</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01455460903831406</v>
+        <v>0.01455460903831405</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="22">
@@ -1331,10 +1331,10 @@
         <v>0.02479301478922747</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="23">
@@ -1371,10 +1371,10 @@
         <v>0.03093034457440681</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="24">
@@ -1413,10 +1413,10 @@
         <v>0.02324195781219216</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="25">
@@ -1450,13 +1450,13 @@
         <v>0.9</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02382196668426006</v>
+        <v>0.02382196668426005</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>0.01426707146109897</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N26" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="27">
@@ -1533,10 +1533,10 @@
         <v>0.0234000023048728</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N27" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="28">
@@ -1573,10 +1573,10 @@
         <v>0.02717119317625253</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N28" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="29">
@@ -1615,10 +1615,10 @@
         <v>0.02395251122347239</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="30">
@@ -1655,10 +1655,10 @@
         <v>0.02497283530520121</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N30" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="31">
@@ -1695,10 +1695,10 @@
         <v>0.01489342270963053</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="32">
@@ -1735,10 +1735,10 @@
         <v>0.02511080619013093</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N32" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="33">
@@ -1775,10 +1775,10 @@
         <v>0.02693091753167536</v>
       </c>
       <c r="M33" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N33" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
     <row r="34">
@@ -1814,13 +1814,13 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02796531682335886</v>
+        <v>0.02796531682335887</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.558138317295402e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>1.013754863333999</v>
+        <v>0.04296880915064832</v>
       </c>
     </row>
     <row r="35">
@@ -1857,10 +1857,10 @@
         <v>0.02680482024880733</v>
       </c>
       <c r="M35" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.868543216178781e-06</v>
       </c>
       <c r="N35" t="n">
-        <v>1.013754863333999</v>
+        <v>0.05664397707692339</v>
       </c>
     </row>
     <row r="36">
@@ -1894,13 +1894,13 @@
         <v>0.9</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01738680412937431</v>
+        <v>0.01738680412937432</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001411453563623058</v>
+        <v>3.890226306993072e-06</v>
       </c>
       <c r="N36" t="n">
-        <v>1.013754863333999</v>
+        <v>0.03632327187314518</v>
       </c>
     </row>
     <row r="37">
@@ -1937,10 +1937,10 @@
         <v>0.02768436386789526</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001411453563623058</v>
+        <v>8.460121672955223e-06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.013754863333999</v>
+        <v>0.08655038485248467</v>
       </c>
     </row>
     <row r="38">
@@ -1974,13 +1974,13 @@
         <v>0.9</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03581085645226657</v>
+        <v>0.03581085645226658</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001411453563623058</v>
+        <v>0.0001263386391267999</v>
       </c>
       <c r="N38" t="n">
-        <v>1.013754863333999</v>
+        <v>1.200236584776747</v>
       </c>
     </row>
   </sheetData>
